--- a/docs/counter.xlsx
+++ b/docs/counter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">increment=true()</t>
   </si>
   <si>
-    <t xml:space="preserve">ex:org.opendatakit.counter(form_id='counter-form', form_name=jr:itext('/counter/form_name:label'), question_id='2', question_name=jr:itext('/counter/counter2:label'), increment=true())</t>
+    <t xml:space="preserve">ex:org.opendatakit.counter(form_id='counter-form', form_name=jr:itext('/data/form_name:label'), question_id='2', question_name=jr:itext('/data/counter2:label'), increment=true())</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -276,19 +276,19 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="202.719387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="202.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -372,7 +372,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/docs/counter.xlsx
+++ b/docs/counter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t xml:space="preserve">ex:org.opendatakit.counter(form_id='counter-form', form_name=jr:itext('/data/form_name:label'), question_id='2', question_name=jr:itext('/data/counter2:label'), increment=true())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licznik 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoincrement=true()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex:org.opendatakit.counter(form_id='counter-form', form_name=jr:itext('/data/form_name:label'), question_id='3', question_name=jr:itext('/data/counter3:label'), autoincrement=true())</t>
   </si>
   <si>
     <t xml:space="preserve">note</t>
@@ -274,10 +289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -285,7 +300,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="202.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="14.16"/>
@@ -352,21 +367,41 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
